--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiscal\source\repos\TischPong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5EAB8F-9909-4373-AD59-70E09FB5B0D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC636E74-15AE-41EE-9773-ED108B63EA43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="1392" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -45,6 +45,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -89,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -100,6 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -380,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y39" sqref="Y39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,6 +869,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
+      <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="6:29" x14ac:dyDescent="0.25">
       <c r="F22" s="2"/>
@@ -1028,6 +1036,137 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3</v>
+      </c>
+      <c r="F55" s="3">
+        <v>4</v>
+      </c>
+      <c r="G55" s="3">
+        <v>5</v>
+      </c>
+      <c r="H55" s="3">
+        <v>6</v>
+      </c>
+      <c r="I55" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>0</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>2</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>3</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>4</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>5</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiscal\source\repos\TischPong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC636E74-15AE-41EE-9773-ED108B63EA43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC636E74-15AE-41EE-9773-ED108B63EA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="1392" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,17 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -393,474 +398,438 @@
       <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="33" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3">
+    <row r="1" spans="1:33">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>6</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>7</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>9</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>10</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>11</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>12</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>13</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="2">
         <v>14</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="2">
         <v>15</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="2">
         <v>16</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="2">
         <v>17</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="2">
         <v>18</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="2">
         <v>19</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="2">
         <v>20</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="2">
         <v>21</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="2">
         <v>22</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="2">
         <v>23</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="2">
         <v>24</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="2">
         <v>25</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="2">
         <v>26</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="2">
         <v>27</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="2">
         <v>28</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="2">
         <v>29</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="2">
         <v>30</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AG1" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:33">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="2"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="3"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="2"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="3"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="2"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+    </row>
+    <row r="12" spans="1:33">
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="F13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="F14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:33">
       <c r="F16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:29">
       <c r="F17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:29">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="21" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:29">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -869,67 +838,40 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="10"/>
-    </row>
-    <row r="22" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="AC21" s="6"/>
+    </row>
+    <row r="22" spans="6:29">
       <c r="J22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="AC22" s="2"/>
-    </row>
-    <row r="23" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+    </row>
+    <row r="23" spans="6:29">
       <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
       <c r="Y23" s="1"/>
-      <c r="AC23" s="2"/>
-    </row>
-    <row r="24" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+    </row>
+    <row r="24" spans="6:29">
       <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="2"/>
-    </row>
-    <row r="25" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+    </row>
+    <row r="25" spans="6:29">
       <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
       <c r="Y25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+    <row r="26" spans="6:29">
       <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
       <c r="Y26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+    <row r="27" spans="6:29">
       <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="30" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:29">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -937,26 +879,23 @@
       <c r="J30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:29">
       <c r="F31" s="1"/>
-      <c r="J31" s="2"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:29">
       <c r="F32" s="1"/>
-      <c r="J32" s="2"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:29">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="2"/>
       <c r="Y33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:29">
       <c r="J34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -964,18 +903,18 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:29">
       <c r="J35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:29">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="39" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:29">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -983,50 +922,31 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="6:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:29">
       <c r="F40" s="1"/>
       <c r="J40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F41" s="2"/>
+    <row r="41" spans="6:29">
       <c r="J41" s="1"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
       <c r="AB41" s="1"/>
-      <c r="AC41" s="2"/>
-    </row>
-    <row r="42" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="G42" s="2"/>
+    </row>
+    <row r="42" spans="6:29">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
       <c r="AA42" s="1"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-    </row>
-    <row r="43" spans="6:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="6:29">
       <c r="J43" s="1"/>
-      <c r="Y43" s="2"/>
       <c r="Z43" s="1"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-    </row>
-    <row r="44" spans="6:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="6:29">
       <c r="F44" s="1"/>
       <c r="J44" s="1"/>
       <c r="Y44" s="1"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-    </row>
-    <row r="45" spans="6:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="6:29">
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1036,136 +956,136 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3">
+    <row r="55" spans="1:9">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2">
         <v>0</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>1</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>2</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>3</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <v>4</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>5</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>6</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="1:9">
+      <c r="A56" s="2">
         <v>0</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="2">
         <v>1</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="2">
         <v>2</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="2">
         <v>3</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="2">
         <v>4</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="2">
         <v>5</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="2">
         <v>6</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="2">
         <v>7</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="3"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
